--- a/Transdict2.xlsx
+++ b/Transdict2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\DispatchOptimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10416E0A-8FD6-4F14-8C00-72434DEB0840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B95F19E-23F3-4C42-BBD4-48BCF1254BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>BAT_ESSm</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Ranking_Cycle</t>
+  </si>
+  <si>
+    <t>q2p</t>
+  </si>
+  <si>
+    <t>Thermal_Storage_Units</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -530,7 +536,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
